--- a/gabarits/Gabarits-formulaire.xlsx
+++ b/gabarits/Gabarits-formulaire.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\gabarits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogu5550\Desktop\Git\INESSS-QC_inesss\gabarits\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B7BB0-FE6C-4642-8B9A-B2F89428F20F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="31620" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gabarit-stat_gen1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -26,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
-    <t>METHOD</t>
-  </si>
-  <si>
     <t>DATE_DEBUT</t>
   </si>
   <si>
@@ -90,12 +94,15 @@
   </si>
   <si>
     <t>DENOM</t>
+  </si>
+  <si>
+    <t>METHODE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,16 +427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -448,70 +455,70 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="6" t="str">
         <f>IF(COUNTIF($G$2:$G$4,L2),"",L2)</f>
         <v/>
       </c>
       <c r="N2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P2" s="6" t="str">
         <f>IF(COUNTIF($I$2:$I$4,O2),"",O2)</f>
@@ -520,20 +527,20 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" s="6" t="str">
         <f t="shared" ref="M3:M4" si="0">IF(COUNTIF($G$2:$G$4,L3),"",L3)</f>
         <v/>
       </c>
       <c r="N3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" s="6" t="str">
         <f t="shared" ref="P3:P4" si="1">IF(COUNTIF($I$2:$I$4,O3),"",O3)</f>
@@ -542,14 +549,14 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="6" t="str">
         <f t="shared" si="1"/>
@@ -558,27 +565,27 @@
     </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>$M$2:$M$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 H2" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>$N$2:$N$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>$P$2:$P$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules G2 à G4" sqref="G5:G1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules I2 à I4" sqref="I5:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules G2 à G4" sqref="G5:G1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules I2 à I4" sqref="I5:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/gabarits/Gabarits-formulaire.xlsx
+++ b/gabarits/Gabarits-formulaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogu5550\Desktop\Git\INESSS-QC_inesss\gabarits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\INESSS-QC_inesss\gabarits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51B7BB0-FE6C-4642-8B9A-B2F89428F20F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63437B76-F647-4E88-BAB4-2011E325C8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gabarit-stat_gen1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -97,6 +100,9 @@
   </si>
   <si>
     <t>METHODE</t>
+  </si>
+  <si>
+    <t>47092</t>
   </si>
 </sst>
 </file>
@@ -431,14 +437,14 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -495,8 +501,17 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="4">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43465</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>12</v>

--- a/gabarits/Gabarits-formulaire.xlsx
+++ b/gabarits/Gabarits-formulaire.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\INESSS-QC_inesss\gabarits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\gabarits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63437B76-F647-4E88-BAB4-2011E325C8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="gabarit-stat_gen1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -84,9 +83,6 @@
     <t>_code_list</t>
   </si>
   <si>
-    <t>select</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -102,13 +98,22 @@
     <t>METHODE</t>
   </si>
   <si>
-    <t>47092</t>
+    <t>GROUPER_PAR</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>_grouper_par</t>
+  </si>
+  <si>
+    <t>Périodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,35 +438,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -476,131 +481,152 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
+      <c r="O1" s="6"/>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>43101</v>
-      </c>
-      <c r="C2" s="4">
-        <v>43465</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="6" t="str">
-        <f>IF(COUNTIF($G$2:$G$4,L2),"",L2)</f>
+      <c r="N2" s="6" t="str">
+        <f>IF(COUNTIF($H$2:$H$4,M2),"",M2)</f>
         <v/>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="6" t="str">
-        <f>IF(COUNTIF($I$2:$I$4,O2),"",O2)</f>
-        <v>03</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="6" t="str">
-        <f t="shared" ref="M3:M4" si="0">IF(COUNTIF($G$2:$G$4,L3),"",L3)</f>
+      <c r="N3" s="6" t="str">
+        <f t="shared" ref="N3:N4" si="0">IF(COUNTIF($H$2:$H$4,M3),"",M3)</f>
         <v/>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="6" t="str">
-        <f t="shared" ref="P3:P4" si="1">IF(COUNTIF($I$2:$I$4,O3),"",O3)</f>
-        <v>40</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="6" t="str">
+      <c r="N4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>L, M, M1 à M3</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="6" t="str">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="6" t="str">
+        <f>IF(COUNTIF($J$2:$J$4,M7),"",M7)</f>
+        <v>03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="6" t="str">
+        <f t="shared" ref="N8:N9" si="1">IF(COUNTIF($J$2:$J$4,M8),"",M8)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f>IF(COUNTIF(F2,M12),"",M12)</f>
+        <v>Périodes</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{00000000-0002-0000-0000-000006000000}">
-      <formula1>$M$2:$M$4</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="G3:G1048576 F3:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+      <formula1>$N$2:$N$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 H2" xr:uid="{00000000-0002-0000-0000-000007000000}">
-      <formula1>$N$2:$N$3</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules G2 à G4" sqref="H5:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules I2 à I4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>$N$7:$N$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{00000000-0002-0000-0000-000008000000}">
-      <formula1>$P$2:$P$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+      <formula1>$P$2:$P$3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules G2 à G4" sqref="G5:G1048576" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules I2 à I4" sqref="I5:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>$N$12</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/gabarits/Gabarits-formulaire.xlsx
+++ b/gabarits/Gabarits-formulaire.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\gabarits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\INESSS-QC_inesss\gabarits\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F5A122-1EFF-4E69-B84B-6F97FBA81CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="300" windowWidth="25440" windowHeight="11685"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gabarit-stat_gen1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -108,12 +109,15 @@
   </si>
   <si>
     <t>Périodes</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,11 +442,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,14 +457,14 @@
     <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="1" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -510,6 +514,9 @@
       <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
@@ -602,31 +609,32 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
+  <dataValidations count="13">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="G3:G1048576 F3:F1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule H2" sqref="I3:I1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>$N$2:$N$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules G2 à G4" sqref="H5:H1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules I2 à I4" sqref="J5:J1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>$N$7:$N$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$P$2:$P$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>$N$12</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{5E61D8FC-C9C3-43C1-A4AD-4E2709921581}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/gabarits/Gabarits-formulaire.xlsx
+++ b/gabarits/Gabarits-formulaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\INESSS-QC_inesss\gabarits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F5A122-1EFF-4E69-B84B-6F97FBA81CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEAF6D6-C04C-4C48-A91E-BEF7BD1C854E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>47092</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,8 +514,17 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="4">
+        <v>43101</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43465</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>25</v>

--- a/gabarits/Gabarits-formulaire.xlsx
+++ b/gabarits/Gabarits-formulaire.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\INESSS-QC_inesss\gabarits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms045\Desktop\Github\INESSS-QC_inesss1\gabarits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEAF6D6-C04C-4C48-A91E-BEF7BD1C854E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="gabarit-stat_gen1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>DATE_DEBUT</t>
   </si>
@@ -112,15 +111,12 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>47092</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,17 +510,8 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>43101</v>
-      </c>
-      <c r="C2" s="4">
-        <v>43465</v>
-      </c>
       <c r="D2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>25</v>
@@ -622,31 +609,31 @@
     </row>
   </sheetData>
   <dataValidations count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Attention" prompt="Utiliser la cellule A2" sqref="A3:A1048576"/>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576">
       <formula1>35065</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule D2" sqref="D3:D1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"DENOM, DIN"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule F2" sqref="F3:F1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule I2" sqref="I3:I1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>$N$2:$N$4</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules H2 à H4" sqref="H5:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser les cellules J2 à J4" sqref="J5:J1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>$N$7:$N$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 I2">
       <formula1>$P$2:$P$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>$N$12</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576" xr:uid="{5E61D8FC-C9C3-43C1-A4AD-4E2709921581}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ATTENTION" prompt="Utiliser la cellule G2" sqref="G3:G1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
